--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taher\Project red flag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983340AD-D9E8-4AA4-816F-9FAF0C9E190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246F2B8-8374-4EA3-AD3E-767E6DE92722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D66C5659-7C76-434F-BAEA-D7285693E24C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="35">
   <si>
     <t xml:space="preserve">Age of Girl </t>
   </si>
@@ -490,12 +490,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24EAC64-5112-4E3D-AEE4-E1EC88A63E18}">
-  <dimension ref="A1:R589"/>
+  <dimension ref="A1:R609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J597" sqref="J597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34084,6 +34084,526 @@
         <v>31</v>
       </c>
     </row>
+    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>29</v>
+      </c>
+      <c r="B590" t="s">
+        <v>14</v>
+      </c>
+      <c r="C590">
+        <v>3</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>23</v>
+      </c>
+      <c r="F590">
+        <v>9</v>
+      </c>
+      <c r="G590" t="s">
+        <v>27</v>
+      </c>
+      <c r="H590" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>29</v>
+      </c>
+      <c r="B591" t="s">
+        <v>14</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591" t="s">
+        <v>22</v>
+      </c>
+      <c r="F591">
+        <v>10</v>
+      </c>
+      <c r="G591" t="s">
+        <v>27</v>
+      </c>
+      <c r="H591" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>29</v>
+      </c>
+      <c r="B592" t="s">
+        <v>15</v>
+      </c>
+      <c r="C592">
+        <v>7</v>
+      </c>
+      <c r="D592">
+        <v>6</v>
+      </c>
+      <c r="E592" t="s">
+        <v>23</v>
+      </c>
+      <c r="F592">
+        <v>4</v>
+      </c>
+      <c r="G592" t="s">
+        <v>27</v>
+      </c>
+      <c r="H592" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>29</v>
+      </c>
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593">
+        <v>3</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593" t="s">
+        <v>22</v>
+      </c>
+      <c r="F593">
+        <v>6</v>
+      </c>
+      <c r="G593" t="s">
+        <v>27</v>
+      </c>
+      <c r="H593" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>29</v>
+      </c>
+      <c r="B594" t="s">
+        <v>14</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594" t="s">
+        <v>22</v>
+      </c>
+      <c r="F594">
+        <v>9</v>
+      </c>
+      <c r="G594" t="s">
+        <v>27</v>
+      </c>
+      <c r="H594" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>29</v>
+      </c>
+      <c r="B595" t="s">
+        <v>15</v>
+      </c>
+      <c r="C595">
+        <v>8</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595" t="s">
+        <v>22</v>
+      </c>
+      <c r="F595">
+        <v>8</v>
+      </c>
+      <c r="G595" t="s">
+        <v>28</v>
+      </c>
+      <c r="H595" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>29</v>
+      </c>
+      <c r="B596" t="s">
+        <v>15</v>
+      </c>
+      <c r="C596">
+        <v>19</v>
+      </c>
+      <c r="D596">
+        <v>3</v>
+      </c>
+      <c r="E596" t="s">
+        <v>24</v>
+      </c>
+      <c r="F596">
+        <v>7</v>
+      </c>
+      <c r="G596" t="s">
+        <v>27</v>
+      </c>
+      <c r="H596" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>29</v>
+      </c>
+      <c r="B597" t="s">
+        <v>14</v>
+      </c>
+      <c r="C597">
+        <v>23</v>
+      </c>
+      <c r="D597">
+        <v>12</v>
+      </c>
+      <c r="E597" t="s">
+        <v>22</v>
+      </c>
+      <c r="F597">
+        <v>8</v>
+      </c>
+      <c r="G597" t="s">
+        <v>30</v>
+      </c>
+      <c r="H597" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>29</v>
+      </c>
+      <c r="B598" t="s">
+        <v>15</v>
+      </c>
+      <c r="C598">
+        <v>16</v>
+      </c>
+      <c r="D598">
+        <v>6</v>
+      </c>
+      <c r="E598" t="s">
+        <v>22</v>
+      </c>
+      <c r="F598">
+        <v>9</v>
+      </c>
+      <c r="G598" t="s">
+        <v>28</v>
+      </c>
+      <c r="H598" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>29</v>
+      </c>
+      <c r="B599" t="s">
+        <v>15</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>22</v>
+      </c>
+      <c r="F599">
+        <v>7</v>
+      </c>
+      <c r="G599" t="s">
+        <v>27</v>
+      </c>
+      <c r="H599" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>30</v>
+      </c>
+      <c r="B600" t="s">
+        <v>14</v>
+      </c>
+      <c r="C600">
+        <v>16</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600" t="s">
+        <v>23</v>
+      </c>
+      <c r="F600">
+        <v>7</v>
+      </c>
+      <c r="G600" t="s">
+        <v>28</v>
+      </c>
+      <c r="H600" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>30</v>
+      </c>
+      <c r="B601" t="s">
+        <v>15</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601" t="s">
+        <v>22</v>
+      </c>
+      <c r="F601">
+        <v>9</v>
+      </c>
+      <c r="G601" t="s">
+        <v>27</v>
+      </c>
+      <c r="H601" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>30</v>
+      </c>
+      <c r="B602" t="s">
+        <v>14</v>
+      </c>
+      <c r="C602">
+        <v>12</v>
+      </c>
+      <c r="D602">
+        <v>9</v>
+      </c>
+      <c r="E602" t="s">
+        <v>22</v>
+      </c>
+      <c r="F602">
+        <v>6</v>
+      </c>
+      <c r="G602" t="s">
+        <v>30</v>
+      </c>
+      <c r="H602" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>30</v>
+      </c>
+      <c r="B603" t="s">
+        <v>14</v>
+      </c>
+      <c r="C603">
+        <v>7</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
+        <v>24</v>
+      </c>
+      <c r="F603">
+        <v>7</v>
+      </c>
+      <c r="G603" t="s">
+        <v>27</v>
+      </c>
+      <c r="H603" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>30</v>
+      </c>
+      <c r="B604" t="s">
+        <v>15</v>
+      </c>
+      <c r="C604">
+        <v>15</v>
+      </c>
+      <c r="D604">
+        <v>10</v>
+      </c>
+      <c r="E604" t="s">
+        <v>22</v>
+      </c>
+      <c r="F604">
+        <v>10</v>
+      </c>
+      <c r="G604" t="s">
+        <v>27</v>
+      </c>
+      <c r="H604" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>30</v>
+      </c>
+      <c r="B605" t="s">
+        <v>14</v>
+      </c>
+      <c r="C605">
+        <v>6</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>22</v>
+      </c>
+      <c r="F605">
+        <v>10</v>
+      </c>
+      <c r="G605" t="s">
+        <v>27</v>
+      </c>
+      <c r="H605" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>30</v>
+      </c>
+      <c r="B606" t="s">
+        <v>15</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606" t="s">
+        <v>22</v>
+      </c>
+      <c r="F606">
+        <v>10</v>
+      </c>
+      <c r="G606" t="s">
+        <v>27</v>
+      </c>
+      <c r="H606" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>30</v>
+      </c>
+      <c r="B607" t="s">
+        <v>15</v>
+      </c>
+      <c r="C607">
+        <v>21</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>22</v>
+      </c>
+      <c r="F607">
+        <v>6</v>
+      </c>
+      <c r="G607" t="s">
+        <v>27</v>
+      </c>
+      <c r="H607" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>30</v>
+      </c>
+      <c r="B608" t="s">
+        <v>15</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608">
+        <v>2</v>
+      </c>
+      <c r="E608" t="s">
+        <v>24</v>
+      </c>
+      <c r="F608">
+        <v>5</v>
+      </c>
+      <c r="G608" t="s">
+        <v>27</v>
+      </c>
+      <c r="H608" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>30</v>
+      </c>
+      <c r="B609" t="s">
+        <v>14</v>
+      </c>
+      <c r="C609">
+        <v>13</v>
+      </c>
+      <c r="D609">
+        <v>8</v>
+      </c>
+      <c r="E609" t="s">
+        <v>23</v>
+      </c>
+      <c r="F609">
+        <v>8</v>
+      </c>
+      <c r="G609" t="s">
+        <v>27</v>
+      </c>
+      <c r="H609" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
